--- a/VersionRecords/Version 6.0.5 20170511/模板_版本Bug和特性计划及评审表vX.X.X.xlsx
+++ b/VersionRecords/Version 6.0.5 20170511/模板_版本Bug和特性计划及评审表vX.X.X.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\charlesfeng\splitgit\mogoroom-doc\VersionRecords\Version 6.0.5 20170511\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23445" windowHeight="13365"/>
   </bookViews>
@@ -29,12 +24,12 @@
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="6" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="85">
   <si>
     <t>No</t>
   </si>
@@ -282,14 +277,31 @@
   </si>
   <si>
     <t>DV-3042</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>田志敏</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOPT-795</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>非AOP的LOG自动规范化方案</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>租客PC/租客APP/房东PC/房东APP
+/房东papp/扫码后端包/Payapi/定时器/OpenApi/TeleApi</t>
     <phoneticPr fontId="24" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="25" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -301,6 +313,7 @@
       <sz val="11"/>
       <color indexed="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -308,6 +321,7 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -315,12 +329,14 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -328,6 +344,7 @@
       <sz val="14"/>
       <color theme="1"/>
       <name val="华文仿宋"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -335,12 +352,14 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="华文仿宋"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="华文仿宋"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -348,6 +367,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="华文仿宋"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -355,40 +375,47 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="63"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="0" tint="-0.249977111117893"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -396,6 +423,7 @@
       <sz val="11"/>
       <color theme="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -408,12 +436,14 @@
     <font>
       <sz val="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -440,11 +470,13 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -932,6 +964,12 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="10" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="10" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -957,12 +995,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="10" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="10" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -980,9 +1012,9 @@
     <cellStyle name="常规 9" xfId="1"/>
     <cellStyle name="超链接" xfId="13" builtinId="8"/>
     <cellStyle name="甘特图" xfId="3"/>
-    <cellStyle name="着色 4" xfId="11" builtinId="41"/>
+    <cellStyle name="强调文字颜色 4" xfId="11" builtinId="41"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="1">
     <dxf>
       <font>
         <b/>
@@ -993,11 +1025,9 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf/>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2">
     <tableStyle name="MySqlDefault" count="2">
-      <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
   </tableStyles>
@@ -1340,20 +1370,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:X170"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="T2" sqref="T2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="6.875" style="47" customWidth="1"/>
     <col min="2" max="3" width="9.875" style="47" customWidth="1"/>
     <col min="4" max="4" width="20.375" style="48" customWidth="1"/>
     <col min="5" max="5" width="15" style="47" customWidth="1"/>
-    <col min="6" max="6" width="18.125" style="47" customWidth="1"/>
+    <col min="6" max="6" width="26.375" style="47" customWidth="1"/>
     <col min="7" max="7" width="9.625" style="47" customWidth="1"/>
     <col min="8" max="8" width="12.125" style="48" customWidth="1"/>
     <col min="9" max="9" width="9.625" style="47" customWidth="1"/>
@@ -1373,7 +1403,7 @@
     <col min="25" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="45" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:24" s="45" customFormat="1" ht="27">
       <c r="A1" s="50" t="s">
         <v>0</v>
       </c>
@@ -1444,7 +1474,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:24" s="46" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:24" s="46" customFormat="1" ht="18" customHeight="1">
       <c r="A2" s="51">
         <v>1</v>
       </c>
@@ -1454,7 +1484,7 @@
       <c r="C2" s="51" t="s">
         <v>69</v>
       </c>
-      <c r="D2" s="87" t="s">
+      <c r="D2" s="78" t="s">
         <v>70</v>
       </c>
       <c r="E2" s="58" t="s">
@@ -1476,7 +1506,7 @@
         <v>42866</v>
       </c>
       <c r="K2" s="58"/>
-      <c r="L2" s="88" t="s">
+      <c r="L2" s="79" t="s">
         <v>74</v>
       </c>
       <c r="M2" s="58" t="s">
@@ -1506,33 +1536,69 @@
       <c r="W2" s="72"/>
       <c r="X2" s="73"/>
     </row>
-    <row r="3" spans="1:24" s="46" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="51"/>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="59"/>
-      <c r="I3" s="58"/>
-      <c r="J3" s="59"/>
+    <row r="3" spans="1:24" s="46" customFormat="1" ht="49.5">
+      <c r="A3" s="51">
+        <v>2</v>
+      </c>
+      <c r="B3" s="51" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" s="51" t="s">
+        <v>69</v>
+      </c>
+      <c r="D3" s="78" t="s">
+        <v>83</v>
+      </c>
+      <c r="E3" s="58" t="s">
+        <v>71</v>
+      </c>
+      <c r="F3" s="58" t="s">
+        <v>84</v>
+      </c>
+      <c r="G3" s="58" t="s">
+        <v>73</v>
+      </c>
+      <c r="H3" s="59">
+        <v>42866</v>
+      </c>
+      <c r="I3" s="58" t="s">
+        <v>73</v>
+      </c>
+      <c r="J3" s="59">
+        <v>42866</v>
+      </c>
       <c r="K3" s="58"/>
-      <c r="L3" s="58"/>
-      <c r="M3" s="58"/>
-      <c r="N3" s="58"/>
-      <c r="O3" s="58"/>
-      <c r="P3" s="62"/>
-      <c r="Q3" s="59"/>
-      <c r="R3" s="62"/>
-      <c r="S3" s="56"/>
-      <c r="T3" s="56"/>
+      <c r="L3" s="79" t="s">
+        <v>81</v>
+      </c>
+      <c r="M3" s="58" t="s">
+        <v>75</v>
+      </c>
+      <c r="N3" s="58" t="s">
+        <v>76</v>
+      </c>
+      <c r="O3" s="58" t="s">
+        <v>77</v>
+      </c>
+      <c r="P3" s="62" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q3" s="59">
+        <v>42861</v>
+      </c>
+      <c r="R3" s="62" t="s">
+        <v>79</v>
+      </c>
+      <c r="S3" s="68" t="s">
+        <v>82</v>
+      </c>
+      <c r="T3" s="68"/>
       <c r="U3" s="56"/>
       <c r="V3" s="67"/>
-      <c r="W3" s="74"/>
+      <c r="W3" s="72"/>
       <c r="X3" s="73"/>
     </row>
-    <row r="4" spans="1:24" s="46" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:24" s="46" customFormat="1" ht="16.5" customHeight="1">
       <c r="A4" s="51"/>
       <c r="B4" s="51"/>
       <c r="C4" s="51"/>
@@ -1558,7 +1624,7 @@
       <c r="W4" s="72"/>
       <c r="X4" s="73"/>
     </row>
-    <row r="5" spans="1:24" s="46" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:24" s="46" customFormat="1" ht="16.5">
       <c r="A5" s="51"/>
       <c r="B5" s="51"/>
       <c r="C5" s="51"/>
@@ -1584,7 +1650,7 @@
       <c r="W5" s="74"/>
       <c r="X5" s="73"/>
     </row>
-    <row r="6" spans="1:24" s="46" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:24" s="46" customFormat="1" ht="16.5">
       <c r="A6" s="51"/>
       <c r="B6" s="51"/>
       <c r="C6" s="51"/>
@@ -1610,7 +1676,7 @@
       <c r="W6" s="74"/>
       <c r="X6" s="73"/>
     </row>
-    <row r="7" spans="1:24" s="46" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:24" s="46" customFormat="1" ht="16.5">
       <c r="A7" s="51"/>
       <c r="B7" s="51"/>
       <c r="C7" s="51"/>
@@ -1636,7 +1702,7 @@
       <c r="W7" s="74"/>
       <c r="X7" s="73"/>
     </row>
-    <row r="8" spans="1:24" s="46" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:24" s="46" customFormat="1" ht="16.5">
       <c r="A8" s="51"/>
       <c r="B8" s="51"/>
       <c r="C8" s="51"/>
@@ -1662,7 +1728,7 @@
       <c r="W8" s="74"/>
       <c r="X8" s="73"/>
     </row>
-    <row r="9" spans="1:24" s="46" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:24" s="46" customFormat="1" ht="16.5">
       <c r="A9" s="51"/>
       <c r="B9" s="51"/>
       <c r="C9" s="51"/>
@@ -1688,7 +1754,7 @@
       <c r="W9" s="74"/>
       <c r="X9" s="73"/>
     </row>
-    <row r="10" spans="1:24" s="46" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:24" s="46" customFormat="1" ht="16.5">
       <c r="A10" s="51"/>
       <c r="B10" s="51"/>
       <c r="C10" s="51"/>
@@ -1714,7 +1780,7 @@
       <c r="W10" s="74"/>
       <c r="X10" s="73"/>
     </row>
-    <row r="11" spans="1:24" s="46" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:24" s="46" customFormat="1" ht="16.5">
       <c r="A11" s="51"/>
       <c r="B11" s="51"/>
       <c r="C11" s="51"/>
@@ -1740,7 +1806,7 @@
       <c r="W11" s="74"/>
       <c r="X11" s="73"/>
     </row>
-    <row r="12" spans="1:24" s="46" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:24" s="46" customFormat="1" ht="16.5">
       <c r="A12" s="51"/>
       <c r="B12" s="51"/>
       <c r="C12" s="51"/>
@@ -1766,7 +1832,7 @@
       <c r="W12" s="74"/>
       <c r="X12" s="73"/>
     </row>
-    <row r="13" spans="1:24" s="46" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:24" s="46" customFormat="1" ht="16.5">
       <c r="A13" s="51"/>
       <c r="B13" s="51"/>
       <c r="C13" s="51"/>
@@ -1792,7 +1858,7 @@
       <c r="W13" s="74"/>
       <c r="X13" s="73"/>
     </row>
-    <row r="14" spans="1:24" s="46" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:24" s="46" customFormat="1" ht="16.5">
       <c r="A14" s="51"/>
       <c r="B14" s="51"/>
       <c r="C14" s="51"/>
@@ -1818,7 +1884,7 @@
       <c r="W14" s="74"/>
       <c r="X14" s="73"/>
     </row>
-    <row r="15" spans="1:24" s="46" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:24" s="46" customFormat="1" ht="16.5">
       <c r="A15" s="51"/>
       <c r="B15" s="51"/>
       <c r="C15" s="51"/>
@@ -1844,7 +1910,7 @@
       <c r="W15" s="74"/>
       <c r="X15" s="73"/>
     </row>
-    <row r="16" spans="1:24" s="46" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:24" s="46" customFormat="1" ht="16.5">
       <c r="A16" s="51"/>
       <c r="B16" s="51"/>
       <c r="C16" s="51"/>
@@ -1870,7 +1936,7 @@
       <c r="W16" s="74"/>
       <c r="X16" s="73"/>
     </row>
-    <row r="17" spans="1:24" s="46" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:24" s="46" customFormat="1" ht="16.5">
       <c r="A17" s="51"/>
       <c r="B17" s="51"/>
       <c r="C17" s="51"/>
@@ -1896,7 +1962,7 @@
       <c r="W17" s="75"/>
       <c r="X17" s="73"/>
     </row>
-    <row r="18" spans="1:24" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:24" ht="16.5">
       <c r="A18" s="51"/>
       <c r="B18" s="51"/>
       <c r="C18" s="51"/>
@@ -1921,7 +1987,7 @@
       <c r="V18" s="56"/>
       <c r="W18" s="57"/>
     </row>
-    <row r="19" spans="1:24" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:24" ht="16.5">
       <c r="A19" s="51"/>
       <c r="B19" s="51"/>
       <c r="C19" s="51"/>
@@ -1946,7 +2012,7 @@
       <c r="V19" s="56"/>
       <c r="W19" s="57"/>
     </row>
-    <row r="20" spans="1:24" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:24" ht="16.5">
       <c r="A20" s="51"/>
       <c r="B20" s="51"/>
       <c r="C20" s="51"/>
@@ -1971,7 +2037,7 @@
       <c r="V20" s="56"/>
       <c r="W20" s="57"/>
     </row>
-    <row r="21" spans="1:24" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:24" ht="16.5">
       <c r="A21" s="51"/>
       <c r="B21" s="51"/>
       <c r="C21" s="51"/>
@@ -1996,7 +2062,7 @@
       <c r="V21" s="56"/>
       <c r="W21" s="74"/>
     </row>
-    <row r="22" spans="1:24" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:24" ht="16.5">
       <c r="A22" s="51"/>
       <c r="B22" s="51"/>
       <c r="C22" s="51"/>
@@ -2021,7 +2087,7 @@
       <c r="V22" s="56"/>
       <c r="W22" s="74"/>
     </row>
-    <row r="23" spans="1:24" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:24" ht="16.5">
       <c r="A23" s="51"/>
       <c r="B23" s="51"/>
       <c r="C23" s="51"/>
@@ -2046,7 +2112,7 @@
       <c r="V23" s="56"/>
       <c r="W23" s="74"/>
     </row>
-    <row r="24" spans="1:24" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:24" ht="16.5">
       <c r="A24" s="51"/>
       <c r="B24" s="51"/>
       <c r="C24" s="51"/>
@@ -2071,7 +2137,7 @@
       <c r="V24" s="70"/>
       <c r="W24" s="76"/>
     </row>
-    <row r="25" spans="1:24" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:24" ht="16.5">
       <c r="A25" s="51"/>
       <c r="B25" s="51"/>
       <c r="C25" s="51"/>
@@ -2096,7 +2162,7 @@
       <c r="V25" s="71"/>
       <c r="W25" s="76"/>
     </row>
-    <row r="26" spans="1:24" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:24" ht="16.5">
       <c r="A26" s="51"/>
       <c r="B26" s="51"/>
       <c r="C26" s="51"/>
@@ -2121,7 +2187,7 @@
       <c r="V26" s="77"/>
       <c r="W26" s="76"/>
     </row>
-    <row r="27" spans="1:24" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:24" ht="16.5">
       <c r="A27" s="51"/>
       <c r="B27" s="51"/>
       <c r="C27" s="51"/>
@@ -2146,7 +2212,7 @@
       <c r="V27" s="71"/>
       <c r="W27" s="76"/>
     </row>
-    <row r="28" spans="1:24" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:24" ht="16.5">
       <c r="A28" s="51"/>
       <c r="B28" s="51"/>
       <c r="C28" s="51"/>
@@ -2171,7 +2237,7 @@
       <c r="V28" s="71"/>
       <c r="W28" s="76"/>
     </row>
-    <row r="29" spans="1:24" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:24" ht="16.5">
       <c r="A29" s="51"/>
       <c r="B29" s="51"/>
       <c r="C29" s="51"/>
@@ -2196,7 +2262,7 @@
       <c r="V29" s="69"/>
       <c r="W29" s="62"/>
     </row>
-    <row r="30" spans="1:24" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:24" ht="16.5">
       <c r="A30" s="51"/>
       <c r="B30" s="51"/>
       <c r="C30" s="51"/>
@@ -2221,7 +2287,7 @@
       <c r="V30" s="56"/>
       <c r="W30" s="74"/>
     </row>
-    <row r="31" spans="1:24" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:24" ht="16.5">
       <c r="A31" s="51"/>
       <c r="B31" s="51"/>
       <c r="C31" s="51"/>
@@ -2246,7 +2312,7 @@
       <c r="V31" s="56"/>
       <c r="W31" s="74"/>
     </row>
-    <row r="32" spans="1:24" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:24" ht="16.5">
       <c r="A32" s="51"/>
       <c r="B32" s="51"/>
       <c r="C32" s="51"/>
@@ -2271,7 +2337,7 @@
       <c r="V32" s="56"/>
       <c r="W32" s="74"/>
     </row>
-    <row r="33" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:23" ht="16.5">
       <c r="A33" s="51"/>
       <c r="B33" s="51"/>
       <c r="C33" s="51"/>
@@ -2296,7 +2362,7 @@
       <c r="V33" s="71"/>
       <c r="W33" s="76"/>
     </row>
-    <row r="34" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:23" ht="16.5">
       <c r="A34" s="51"/>
       <c r="B34" s="51"/>
       <c r="C34" s="51"/>
@@ -2321,7 +2387,7 @@
       <c r="V34" s="56"/>
       <c r="W34" s="72"/>
     </row>
-    <row r="35" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:23" ht="16.5">
       <c r="A35" s="51"/>
       <c r="B35" s="51"/>
       <c r="C35" s="51"/>
@@ -2346,7 +2412,7 @@
       <c r="V35" s="56"/>
       <c r="W35" s="74"/>
     </row>
-    <row r="36" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:23" ht="16.5">
       <c r="A36" s="51"/>
       <c r="B36" s="51"/>
       <c r="C36" s="51"/>
@@ -2371,7 +2437,7 @@
       <c r="V36" s="56"/>
       <c r="W36" s="74"/>
     </row>
-    <row r="37" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:23" ht="16.5">
       <c r="A37" s="51"/>
       <c r="B37" s="51"/>
       <c r="C37" s="51"/>
@@ -2396,7 +2462,7 @@
       <c r="V37" s="56"/>
       <c r="W37" s="74"/>
     </row>
-    <row r="38" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:23" ht="16.5">
       <c r="A38" s="51"/>
       <c r="B38" s="51"/>
       <c r="C38" s="51"/>
@@ -2421,7 +2487,7 @@
       <c r="V38" s="56"/>
       <c r="W38" s="74"/>
     </row>
-    <row r="39" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:23" ht="16.5">
       <c r="A39" s="51"/>
       <c r="B39" s="51"/>
       <c r="C39" s="51"/>
@@ -2446,7 +2512,7 @@
       <c r="V39" s="56"/>
       <c r="W39" s="74"/>
     </row>
-    <row r="40" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:23" ht="16.5">
       <c r="A40" s="51"/>
       <c r="B40" s="51"/>
       <c r="C40" s="51"/>
@@ -2471,7 +2537,7 @@
       <c r="V40" s="56"/>
       <c r="W40" s="74"/>
     </row>
-    <row r="41" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:23" ht="16.5">
       <c r="A41" s="51"/>
       <c r="B41" s="51"/>
       <c r="C41" s="51"/>
@@ -2496,7 +2562,7 @@
       <c r="V41" s="56"/>
       <c r="W41" s="74"/>
     </row>
-    <row r="42" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:23" ht="16.5">
       <c r="A42" s="51"/>
       <c r="B42" s="51"/>
       <c r="C42" s="51"/>
@@ -2521,7 +2587,7 @@
       <c r="V42" s="56"/>
       <c r="W42" s="74"/>
     </row>
-    <row r="43" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:23" ht="16.5">
       <c r="A43" s="51"/>
       <c r="B43" s="51"/>
       <c r="C43" s="51"/>
@@ -2546,7 +2612,7 @@
       <c r="V43" s="56"/>
       <c r="W43" s="74"/>
     </row>
-    <row r="44" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:23" ht="16.5">
       <c r="A44" s="51"/>
       <c r="B44" s="51"/>
       <c r="C44" s="51"/>
@@ -2571,7 +2637,7 @@
       <c r="V44" s="56"/>
       <c r="W44" s="74"/>
     </row>
-    <row r="45" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:23" ht="16.5">
       <c r="A45" s="51"/>
       <c r="B45" s="51"/>
       <c r="C45" s="51"/>
@@ -2596,7 +2662,7 @@
       <c r="V45" s="69"/>
       <c r="W45" s="74"/>
     </row>
-    <row r="46" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:23" ht="16.5">
       <c r="A46" s="51"/>
       <c r="B46" s="51"/>
       <c r="C46" s="51"/>
@@ -2621,7 +2687,7 @@
       <c r="V46" s="69"/>
       <c r="W46" s="74"/>
     </row>
-    <row r="47" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:23" ht="16.5">
       <c r="A47" s="51"/>
       <c r="B47" s="51"/>
       <c r="C47" s="51"/>
@@ -2646,7 +2712,7 @@
       <c r="V47" s="56"/>
       <c r="W47" s="57"/>
     </row>
-    <row r="48" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:23" ht="16.5">
       <c r="A48" s="51"/>
       <c r="B48" s="51"/>
       <c r="C48" s="51"/>
@@ -2671,7 +2737,7 @@
       <c r="V48" s="56"/>
       <c r="W48" s="57"/>
     </row>
-    <row r="49" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:23" ht="16.5">
       <c r="A49" s="51"/>
       <c r="B49" s="51"/>
       <c r="C49" s="51"/>
@@ -2696,7 +2762,7 @@
       <c r="V49" s="56"/>
       <c r="W49" s="57"/>
     </row>
-    <row r="50" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:23" ht="16.5">
       <c r="A50" s="51"/>
       <c r="B50" s="51"/>
       <c r="C50" s="51"/>
@@ -2721,7 +2787,7 @@
       <c r="V50" s="56"/>
       <c r="W50" s="57"/>
     </row>
-    <row r="51" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:23" ht="16.5">
       <c r="A51" s="51"/>
       <c r="B51" s="51"/>
       <c r="C51" s="51"/>
@@ -2746,7 +2812,7 @@
       <c r="V51" s="56"/>
       <c r="W51" s="57"/>
     </row>
-    <row r="52" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:23" ht="16.5">
       <c r="A52" s="51"/>
       <c r="B52" s="51"/>
       <c r="C52" s="51"/>
@@ -2771,7 +2837,7 @@
       <c r="V52" s="56"/>
       <c r="W52" s="57"/>
     </row>
-    <row r="53" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:23" ht="16.5">
       <c r="A53" s="51"/>
       <c r="B53" s="51"/>
       <c r="C53" s="51"/>
@@ -2796,7 +2862,7 @@
       <c r="V53" s="56"/>
       <c r="W53" s="57"/>
     </row>
-    <row r="54" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:23" ht="16.5">
       <c r="A54" s="56"/>
       <c r="B54" s="56"/>
       <c r="C54" s="56"/>
@@ -2821,7 +2887,7 @@
       <c r="V54" s="56"/>
       <c r="W54" s="57"/>
     </row>
-    <row r="55" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:23" ht="16.5">
       <c r="A55" s="56"/>
       <c r="B55" s="56"/>
       <c r="C55" s="56"/>
@@ -2846,7 +2912,7 @@
       <c r="V55" s="56"/>
       <c r="W55" s="57"/>
     </row>
-    <row r="56" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:23" ht="16.5">
       <c r="A56" s="56"/>
       <c r="B56" s="56"/>
       <c r="C56" s="56"/>
@@ -2871,7 +2937,7 @@
       <c r="V56" s="56"/>
       <c r="W56" s="57"/>
     </row>
-    <row r="57" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:23" ht="16.5">
       <c r="A57" s="56"/>
       <c r="B57" s="56"/>
       <c r="C57" s="56"/>
@@ -2896,7 +2962,7 @@
       <c r="V57" s="56"/>
       <c r="W57" s="57"/>
     </row>
-    <row r="58" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:23" ht="16.5">
       <c r="A58" s="56"/>
       <c r="B58" s="56"/>
       <c r="C58" s="56"/>
@@ -2921,7 +2987,7 @@
       <c r="V58" s="56"/>
       <c r="W58" s="57"/>
     </row>
-    <row r="59" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:23" ht="16.5">
       <c r="A59" s="56"/>
       <c r="B59" s="56"/>
       <c r="C59" s="56"/>
@@ -2946,7 +3012,7 @@
       <c r="V59" s="56"/>
       <c r="W59" s="57"/>
     </row>
-    <row r="60" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:23" ht="16.5">
       <c r="A60" s="56"/>
       <c r="B60" s="56"/>
       <c r="C60" s="56"/>
@@ -2971,7 +3037,7 @@
       <c r="V60" s="56"/>
       <c r="W60" s="57"/>
     </row>
-    <row r="61" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:23" ht="16.5">
       <c r="A61" s="56"/>
       <c r="B61" s="56"/>
       <c r="C61" s="56"/>
@@ -2996,7 +3062,7 @@
       <c r="V61" s="56"/>
       <c r="W61" s="57"/>
     </row>
-    <row r="62" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:23" ht="16.5">
       <c r="A62" s="56"/>
       <c r="B62" s="56"/>
       <c r="C62" s="56"/>
@@ -3021,7 +3087,7 @@
       <c r="V62" s="56"/>
       <c r="W62" s="57"/>
     </row>
-    <row r="63" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:23" ht="16.5">
       <c r="A63" s="56"/>
       <c r="B63" s="56"/>
       <c r="C63" s="56"/>
@@ -3046,7 +3112,7 @@
       <c r="V63" s="56"/>
       <c r="W63" s="57"/>
     </row>
-    <row r="64" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:23" ht="16.5">
       <c r="A64" s="56"/>
       <c r="B64" s="56"/>
       <c r="C64" s="56"/>
@@ -3071,7 +3137,7 @@
       <c r="V64" s="56"/>
       <c r="W64" s="57"/>
     </row>
-    <row r="65" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:23" ht="16.5">
       <c r="A65" s="56"/>
       <c r="B65" s="56"/>
       <c r="C65" s="56"/>
@@ -3096,7 +3162,7 @@
       <c r="V65" s="56"/>
       <c r="W65" s="57"/>
     </row>
-    <row r="66" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:23" ht="16.5">
       <c r="A66" s="56"/>
       <c r="B66" s="56"/>
       <c r="C66" s="56"/>
@@ -3121,7 +3187,7 @@
       <c r="V66" s="56"/>
       <c r="W66" s="57"/>
     </row>
-    <row r="67" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:23" ht="16.5">
       <c r="A67" s="56"/>
       <c r="B67" s="56"/>
       <c r="C67" s="56"/>
@@ -3146,7 +3212,7 @@
       <c r="V67" s="56"/>
       <c r="W67" s="57"/>
     </row>
-    <row r="68" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:23" ht="16.5">
       <c r="A68" s="56"/>
       <c r="B68" s="56"/>
       <c r="C68" s="56"/>
@@ -3171,7 +3237,7 @@
       <c r="V68" s="56"/>
       <c r="W68" s="57"/>
     </row>
-    <row r="69" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:23" ht="16.5">
       <c r="A69" s="56"/>
       <c r="B69" s="56"/>
       <c r="C69" s="56"/>
@@ -3196,7 +3262,7 @@
       <c r="V69" s="56"/>
       <c r="W69" s="57"/>
     </row>
-    <row r="70" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:23" ht="16.5">
       <c r="A70" s="56"/>
       <c r="B70" s="56"/>
       <c r="C70" s="56"/>
@@ -3221,7 +3287,7 @@
       <c r="V70" s="56"/>
       <c r="W70" s="57"/>
     </row>
-    <row r="71" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:23" ht="16.5">
       <c r="A71" s="56"/>
       <c r="B71" s="56"/>
       <c r="C71" s="56"/>
@@ -3246,7 +3312,7 @@
       <c r="V71" s="56"/>
       <c r="W71" s="57"/>
     </row>
-    <row r="72" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:23" ht="16.5">
       <c r="A72" s="56"/>
       <c r="B72" s="56"/>
       <c r="C72" s="56"/>
@@ -3271,7 +3337,7 @@
       <c r="V72" s="56"/>
       <c r="W72" s="57"/>
     </row>
-    <row r="73" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:23" ht="16.5">
       <c r="A73" s="56"/>
       <c r="B73" s="56"/>
       <c r="C73" s="56"/>
@@ -3296,7 +3362,7 @@
       <c r="V73" s="56"/>
       <c r="W73" s="57"/>
     </row>
-    <row r="74" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:23" ht="16.5">
       <c r="A74" s="56"/>
       <c r="B74" s="56"/>
       <c r="C74" s="56"/>
@@ -3321,7 +3387,7 @@
       <c r="V74" s="56"/>
       <c r="W74" s="57"/>
     </row>
-    <row r="75" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:23" ht="16.5">
       <c r="A75" s="56"/>
       <c r="B75" s="56"/>
       <c r="C75" s="56"/>
@@ -3346,7 +3412,7 @@
       <c r="V75" s="56"/>
       <c r="W75" s="57"/>
     </row>
-    <row r="76" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:23" ht="16.5">
       <c r="A76" s="56"/>
       <c r="B76" s="56"/>
       <c r="C76" s="56"/>
@@ -3371,7 +3437,7 @@
       <c r="V76" s="56"/>
       <c r="W76" s="57"/>
     </row>
-    <row r="77" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:23" ht="16.5">
       <c r="A77" s="56"/>
       <c r="B77" s="56"/>
       <c r="C77" s="56"/>
@@ -3396,7 +3462,7 @@
       <c r="V77" s="56"/>
       <c r="W77" s="57"/>
     </row>
-    <row r="78" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:23" ht="16.5">
       <c r="A78" s="56"/>
       <c r="B78" s="56"/>
       <c r="C78" s="56"/>
@@ -3421,7 +3487,7 @@
       <c r="V78" s="56"/>
       <c r="W78" s="57"/>
     </row>
-    <row r="79" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:23" ht="16.5">
       <c r="A79" s="56"/>
       <c r="B79" s="56"/>
       <c r="C79" s="56"/>
@@ -3446,7 +3512,7 @@
       <c r="V79" s="56"/>
       <c r="W79" s="57"/>
     </row>
-    <row r="80" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:23">
       <c r="A80" s="56"/>
       <c r="B80" s="56"/>
       <c r="C80" s="56"/>
@@ -3471,7 +3537,7 @@
       <c r="V80" s="56"/>
       <c r="W80" s="57"/>
     </row>
-    <row r="81" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:23">
       <c r="A81" s="56"/>
       <c r="B81" s="56"/>
       <c r="C81" s="56"/>
@@ -3496,7 +3562,7 @@
       <c r="V81" s="56"/>
       <c r="W81" s="57"/>
     </row>
-    <row r="82" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:23">
       <c r="A82" s="56"/>
       <c r="B82" s="56"/>
       <c r="C82" s="56"/>
@@ -3521,7 +3587,7 @@
       <c r="V82" s="56"/>
       <c r="W82" s="57"/>
     </row>
-    <row r="83" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:23">
       <c r="A83" s="56"/>
       <c r="B83" s="56"/>
       <c r="C83" s="56"/>
@@ -3546,7 +3612,7 @@
       <c r="V83" s="56"/>
       <c r="W83" s="57"/>
     </row>
-    <row r="84" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:23">
       <c r="A84" s="56"/>
       <c r="B84" s="56"/>
       <c r="C84" s="56"/>
@@ -3571,7 +3637,7 @@
       <c r="V84" s="56"/>
       <c r="W84" s="57"/>
     </row>
-    <row r="85" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:23">
       <c r="A85" s="56"/>
       <c r="B85" s="56"/>
       <c r="C85" s="56"/>
@@ -3596,7 +3662,7 @@
       <c r="V85" s="56"/>
       <c r="W85" s="57"/>
     </row>
-    <row r="86" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:23">
       <c r="A86" s="56"/>
       <c r="B86" s="56"/>
       <c r="C86" s="56"/>
@@ -3621,7 +3687,7 @@
       <c r="V86" s="56"/>
       <c r="W86" s="57"/>
     </row>
-    <row r="87" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:23">
       <c r="A87" s="56"/>
       <c r="B87" s="56"/>
       <c r="C87" s="56"/>
@@ -3646,7 +3712,7 @@
       <c r="V87" s="56"/>
       <c r="W87" s="57"/>
     </row>
-    <row r="88" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:23">
       <c r="A88" s="56"/>
       <c r="B88" s="56"/>
       <c r="C88" s="56"/>
@@ -3671,7 +3737,7 @@
       <c r="V88" s="56"/>
       <c r="W88" s="57"/>
     </row>
-    <row r="89" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:23">
       <c r="A89" s="56"/>
       <c r="B89" s="56"/>
       <c r="C89" s="56"/>
@@ -3696,7 +3762,7 @@
       <c r="V89" s="56"/>
       <c r="W89" s="57"/>
     </row>
-    <row r="90" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:23">
       <c r="A90" s="56"/>
       <c r="B90" s="56"/>
       <c r="C90" s="56"/>
@@ -3721,7 +3787,7 @@
       <c r="V90" s="56"/>
       <c r="W90" s="57"/>
     </row>
-    <row r="91" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:23">
       <c r="A91" s="56"/>
       <c r="B91" s="56"/>
       <c r="C91" s="56"/>
@@ -3746,7 +3812,7 @@
       <c r="V91" s="56"/>
       <c r="W91" s="57"/>
     </row>
-    <row r="92" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:23">
       <c r="A92" s="56"/>
       <c r="B92" s="56"/>
       <c r="C92" s="56"/>
@@ -3771,7 +3837,7 @@
       <c r="V92" s="56"/>
       <c r="W92" s="57"/>
     </row>
-    <row r="93" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:23">
       <c r="A93" s="56"/>
       <c r="B93" s="56"/>
       <c r="C93" s="56"/>
@@ -3796,7 +3862,7 @@
       <c r="V93" s="56"/>
       <c r="W93" s="57"/>
     </row>
-    <row r="94" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:23">
       <c r="A94" s="56"/>
       <c r="B94" s="56"/>
       <c r="C94" s="56"/>
@@ -3821,7 +3887,7 @@
       <c r="V94" s="56"/>
       <c r="W94" s="57"/>
     </row>
-    <row r="95" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:23">
       <c r="A95" s="56"/>
       <c r="B95" s="56"/>
       <c r="C95" s="56"/>
@@ -3846,7 +3912,7 @@
       <c r="V95" s="56"/>
       <c r="W95" s="57"/>
     </row>
-    <row r="96" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:23">
       <c r="A96" s="56"/>
       <c r="B96" s="56"/>
       <c r="C96" s="56"/>
@@ -3871,7 +3937,7 @@
       <c r="V96" s="56"/>
       <c r="W96" s="57"/>
     </row>
-    <row r="97" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:23">
       <c r="A97" s="56"/>
       <c r="B97" s="56"/>
       <c r="C97" s="56"/>
@@ -3896,7 +3962,7 @@
       <c r="V97" s="56"/>
       <c r="W97" s="57"/>
     </row>
-    <row r="98" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:23">
       <c r="A98" s="56"/>
       <c r="B98" s="56"/>
       <c r="C98" s="56"/>
@@ -3921,7 +3987,7 @@
       <c r="V98" s="56"/>
       <c r="W98" s="57"/>
     </row>
-    <row r="99" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:23">
       <c r="A99" s="56"/>
       <c r="B99" s="56"/>
       <c r="C99" s="56"/>
@@ -3946,7 +4012,7 @@
       <c r="V99" s="56"/>
       <c r="W99" s="57"/>
     </row>
-    <row r="100" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:23">
       <c r="A100" s="56"/>
       <c r="B100" s="56"/>
       <c r="C100" s="56"/>
@@ -3971,7 +4037,7 @@
       <c r="V100" s="56"/>
       <c r="W100" s="57"/>
     </row>
-    <row r="101" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:23">
       <c r="A101" s="56"/>
       <c r="B101" s="56"/>
       <c r="C101" s="56"/>
@@ -3996,7 +4062,7 @@
       <c r="V101" s="56"/>
       <c r="W101" s="57"/>
     </row>
-    <row r="102" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:23">
       <c r="A102" s="56"/>
       <c r="B102" s="56"/>
       <c r="C102" s="56"/>
@@ -4021,7 +4087,7 @@
       <c r="V102" s="56"/>
       <c r="W102" s="57"/>
     </row>
-    <row r="103" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:23">
       <c r="A103" s="56"/>
       <c r="B103" s="56"/>
       <c r="C103" s="56"/>
@@ -4046,7 +4112,7 @@
       <c r="V103" s="56"/>
       <c r="W103" s="57"/>
     </row>
-    <row r="104" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:23">
       <c r="A104" s="56"/>
       <c r="B104" s="56"/>
       <c r="C104" s="56"/>
@@ -4071,7 +4137,7 @@
       <c r="V104" s="56"/>
       <c r="W104" s="57"/>
     </row>
-    <row r="105" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:23">
       <c r="A105" s="56"/>
       <c r="B105" s="56"/>
       <c r="C105" s="56"/>
@@ -4096,7 +4162,7 @@
       <c r="V105" s="56"/>
       <c r="W105" s="57"/>
     </row>
-    <row r="106" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:23">
       <c r="A106" s="56"/>
       <c r="B106" s="56"/>
       <c r="C106" s="56"/>
@@ -4121,7 +4187,7 @@
       <c r="V106" s="56"/>
       <c r="W106" s="57"/>
     </row>
-    <row r="107" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:23">
       <c r="A107" s="56"/>
       <c r="B107" s="56"/>
       <c r="C107" s="56"/>
@@ -4146,7 +4212,7 @@
       <c r="V107" s="56"/>
       <c r="W107" s="57"/>
     </row>
-    <row r="108" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:23">
       <c r="A108" s="56"/>
       <c r="B108" s="56"/>
       <c r="C108" s="56"/>
@@ -4171,7 +4237,7 @@
       <c r="V108" s="56"/>
       <c r="W108" s="57"/>
     </row>
-    <row r="109" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:23">
       <c r="A109" s="56"/>
       <c r="B109" s="56"/>
       <c r="C109" s="56"/>
@@ -4196,7 +4262,7 @@
       <c r="V109" s="56"/>
       <c r="W109" s="57"/>
     </row>
-    <row r="110" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:23">
       <c r="A110" s="56"/>
       <c r="B110" s="56"/>
       <c r="C110" s="56"/>
@@ -4221,7 +4287,7 @@
       <c r="V110" s="56"/>
       <c r="W110" s="57"/>
     </row>
-    <row r="111" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:23">
       <c r="A111" s="56"/>
       <c r="B111" s="56"/>
       <c r="C111" s="56"/>
@@ -4246,7 +4312,7 @@
       <c r="V111" s="56"/>
       <c r="W111" s="57"/>
     </row>
-    <row r="112" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:23">
       <c r="A112" s="56"/>
       <c r="B112" s="56"/>
       <c r="C112" s="56"/>
@@ -4271,7 +4337,7 @@
       <c r="V112" s="56"/>
       <c r="W112" s="57"/>
     </row>
-    <row r="113" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:23">
       <c r="A113" s="56"/>
       <c r="B113" s="56"/>
       <c r="C113" s="56"/>
@@ -4296,7 +4362,7 @@
       <c r="V113" s="56"/>
       <c r="W113" s="57"/>
     </row>
-    <row r="114" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:23">
       <c r="A114" s="56"/>
       <c r="B114" s="56"/>
       <c r="C114" s="56"/>
@@ -4321,7 +4387,7 @@
       <c r="V114" s="56"/>
       <c r="W114" s="57"/>
     </row>
-    <row r="115" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:23">
       <c r="A115" s="56"/>
       <c r="B115" s="56"/>
       <c r="C115" s="56"/>
@@ -4346,7 +4412,7 @@
       <c r="V115" s="56"/>
       <c r="W115" s="57"/>
     </row>
-    <row r="116" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:23">
       <c r="A116" s="56"/>
       <c r="B116" s="56"/>
       <c r="C116" s="56"/>
@@ -4371,7 +4437,7 @@
       <c r="V116" s="56"/>
       <c r="W116" s="57"/>
     </row>
-    <row r="117" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:23">
       <c r="A117" s="56"/>
       <c r="B117" s="56"/>
       <c r="C117" s="56"/>
@@ -4396,7 +4462,7 @@
       <c r="V117" s="56"/>
       <c r="W117" s="57"/>
     </row>
-    <row r="118" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:23">
       <c r="A118" s="56"/>
       <c r="B118" s="56"/>
       <c r="C118" s="56"/>
@@ -4421,7 +4487,7 @@
       <c r="V118" s="56"/>
       <c r="W118" s="57"/>
     </row>
-    <row r="119" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:23">
       <c r="A119" s="56"/>
       <c r="B119" s="56"/>
       <c r="C119" s="56"/>
@@ -4446,7 +4512,7 @@
       <c r="V119" s="56"/>
       <c r="W119" s="57"/>
     </row>
-    <row r="120" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:23">
       <c r="A120" s="56"/>
       <c r="B120" s="56"/>
       <c r="C120" s="56"/>
@@ -4471,7 +4537,7 @@
       <c r="V120" s="56"/>
       <c r="W120" s="57"/>
     </row>
-    <row r="121" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:23">
       <c r="A121" s="56"/>
       <c r="B121" s="56"/>
       <c r="C121" s="56"/>
@@ -4496,7 +4562,7 @@
       <c r="V121" s="56"/>
       <c r="W121" s="57"/>
     </row>
-    <row r="122" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:23">
       <c r="A122" s="56"/>
       <c r="B122" s="56"/>
       <c r="C122" s="56"/>
@@ -4521,7 +4587,7 @@
       <c r="V122" s="56"/>
       <c r="W122" s="57"/>
     </row>
-    <row r="123" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:23">
       <c r="A123" s="56"/>
       <c r="B123" s="56"/>
       <c r="C123" s="56"/>
@@ -4546,7 +4612,7 @@
       <c r="V123" s="56"/>
       <c r="W123" s="57"/>
     </row>
-    <row r="124" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:23">
       <c r="A124" s="56"/>
       <c r="B124" s="56"/>
       <c r="C124" s="56"/>
@@ -4571,7 +4637,7 @@
       <c r="V124" s="56"/>
       <c r="W124" s="57"/>
     </row>
-    <row r="125" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:23">
       <c r="A125" s="56"/>
       <c r="B125" s="56"/>
       <c r="C125" s="56"/>
@@ -4596,7 +4662,7 @@
       <c r="V125" s="56"/>
       <c r="W125" s="57"/>
     </row>
-    <row r="126" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:23">
       <c r="A126" s="56"/>
       <c r="B126" s="56"/>
       <c r="C126" s="56"/>
@@ -4621,7 +4687,7 @@
       <c r="V126" s="56"/>
       <c r="W126" s="57"/>
     </row>
-    <row r="127" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:23">
       <c r="A127" s="56"/>
       <c r="B127" s="56"/>
       <c r="C127" s="56"/>
@@ -4646,7 +4712,7 @@
       <c r="V127" s="56"/>
       <c r="W127" s="57"/>
     </row>
-    <row r="128" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:23">
       <c r="A128" s="56"/>
       <c r="B128" s="56"/>
       <c r="C128" s="56"/>
@@ -4671,7 +4737,7 @@
       <c r="V128" s="56"/>
       <c r="W128" s="57"/>
     </row>
-    <row r="129" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:23">
       <c r="A129" s="56"/>
       <c r="B129" s="56"/>
       <c r="C129" s="56"/>
@@ -4696,7 +4762,7 @@
       <c r="V129" s="56"/>
       <c r="W129" s="57"/>
     </row>
-    <row r="130" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:23">
       <c r="A130" s="56"/>
       <c r="B130" s="56"/>
       <c r="C130" s="56"/>
@@ -4721,7 +4787,7 @@
       <c r="V130" s="56"/>
       <c r="W130" s="57"/>
     </row>
-    <row r="131" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:23">
       <c r="A131" s="56"/>
       <c r="B131" s="56"/>
       <c r="C131" s="56"/>
@@ -4746,7 +4812,7 @@
       <c r="V131" s="56"/>
       <c r="W131" s="57"/>
     </row>
-    <row r="132" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:23">
       <c r="A132" s="56"/>
       <c r="B132" s="56"/>
       <c r="C132" s="56"/>
@@ -4771,7 +4837,7 @@
       <c r="V132" s="56"/>
       <c r="W132" s="57"/>
     </row>
-    <row r="133" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:23">
       <c r="A133" s="56"/>
       <c r="B133" s="56"/>
       <c r="C133" s="56"/>
@@ -4796,7 +4862,7 @@
       <c r="V133" s="56"/>
       <c r="W133" s="57"/>
     </row>
-    <row r="134" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:23">
       <c r="A134" s="56"/>
       <c r="B134" s="56"/>
       <c r="C134" s="56"/>
@@ -4821,7 +4887,7 @@
       <c r="V134" s="56"/>
       <c r="W134" s="57"/>
     </row>
-    <row r="135" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:23">
       <c r="A135" s="56"/>
       <c r="B135" s="56"/>
       <c r="C135" s="56"/>
@@ -4846,7 +4912,7 @@
       <c r="V135" s="56"/>
       <c r="W135" s="57"/>
     </row>
-    <row r="136" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:23">
       <c r="A136" s="56"/>
       <c r="B136" s="56"/>
       <c r="C136" s="56"/>
@@ -4867,7 +4933,7 @@
       <c r="R136" s="57"/>
       <c r="W136" s="57"/>
     </row>
-    <row r="137" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:23">
       <c r="A137" s="56"/>
       <c r="B137" s="56"/>
       <c r="C137" s="56"/>
@@ -4888,7 +4954,7 @@
       <c r="R137" s="57"/>
       <c r="W137" s="57"/>
     </row>
-    <row r="138" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:23">
       <c r="A138" s="56"/>
       <c r="B138" s="56"/>
       <c r="C138" s="56"/>
@@ -4909,7 +4975,7 @@
       <c r="R138" s="57"/>
       <c r="W138" s="57"/>
     </row>
-    <row r="139" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:23">
       <c r="A139" s="56"/>
       <c r="B139" s="56"/>
       <c r="C139" s="56"/>
@@ -4930,7 +4996,7 @@
       <c r="R139" s="57"/>
       <c r="W139" s="57"/>
     </row>
-    <row r="140" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:23">
       <c r="A140" s="56"/>
       <c r="B140" s="56"/>
       <c r="C140" s="56"/>
@@ -4951,7 +5017,7 @@
       <c r="R140" s="57"/>
       <c r="W140" s="57"/>
     </row>
-    <row r="141" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:23">
       <c r="A141" s="56"/>
       <c r="B141" s="56"/>
       <c r="C141" s="56"/>
@@ -4972,7 +5038,7 @@
       <c r="R141" s="57"/>
       <c r="W141" s="57"/>
     </row>
-    <row r="142" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:23">
       <c r="A142" s="56"/>
       <c r="B142" s="56"/>
       <c r="C142" s="56"/>
@@ -4993,7 +5059,7 @@
       <c r="R142" s="57"/>
       <c r="W142" s="57"/>
     </row>
-    <row r="143" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:23">
       <c r="A143" s="56"/>
       <c r="B143" s="56"/>
       <c r="C143" s="56"/>
@@ -5014,7 +5080,7 @@
       <c r="R143" s="57"/>
       <c r="W143" s="57"/>
     </row>
-    <row r="144" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:23">
       <c r="A144" s="56"/>
       <c r="B144" s="56"/>
       <c r="C144" s="56"/>
@@ -5035,7 +5101,7 @@
       <c r="R144" s="57"/>
       <c r="W144" s="57"/>
     </row>
-    <row r="145" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:23">
       <c r="A145" s="56"/>
       <c r="B145" s="56"/>
       <c r="C145" s="56"/>
@@ -5056,7 +5122,7 @@
       <c r="R145" s="57"/>
       <c r="W145" s="57"/>
     </row>
-    <row r="146" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:23">
       <c r="A146" s="56"/>
       <c r="B146" s="56"/>
       <c r="C146" s="56"/>
@@ -5077,7 +5143,7 @@
       <c r="R146" s="57"/>
       <c r="W146" s="57"/>
     </row>
-    <row r="147" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:23">
       <c r="A147" s="56"/>
       <c r="B147" s="56"/>
       <c r="C147" s="56"/>
@@ -5098,7 +5164,7 @@
       <c r="R147" s="57"/>
       <c r="W147" s="57"/>
     </row>
-    <row r="148" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:23">
       <c r="A148" s="56"/>
       <c r="B148" s="56"/>
       <c r="C148" s="56"/>
@@ -5119,7 +5185,7 @@
       <c r="R148" s="57"/>
       <c r="W148" s="57"/>
     </row>
-    <row r="149" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:23">
       <c r="A149" s="56"/>
       <c r="B149" s="56"/>
       <c r="C149" s="56"/>
@@ -5140,7 +5206,7 @@
       <c r="R149" s="57"/>
       <c r="W149" s="57"/>
     </row>
-    <row r="150" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:23">
       <c r="A150" s="56"/>
       <c r="B150" s="56"/>
       <c r="C150" s="56"/>
@@ -5161,7 +5227,7 @@
       <c r="R150" s="57"/>
       <c r="W150" s="57"/>
     </row>
-    <row r="151" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:23">
       <c r="A151" s="56"/>
       <c r="B151" s="56"/>
       <c r="C151" s="56"/>
@@ -5182,7 +5248,7 @@
       <c r="R151" s="57"/>
       <c r="W151" s="57"/>
     </row>
-    <row r="152" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:23">
       <c r="A152" s="56"/>
       <c r="B152" s="56"/>
       <c r="C152" s="56"/>
@@ -5203,7 +5269,7 @@
       <c r="R152" s="57"/>
       <c r="W152" s="57"/>
     </row>
-    <row r="153" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:23">
       <c r="A153" s="56"/>
       <c r="B153" s="56"/>
       <c r="C153" s="56"/>
@@ -5224,7 +5290,7 @@
       <c r="R153" s="57"/>
       <c r="W153" s="57"/>
     </row>
-    <row r="154" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:23">
       <c r="A154" s="56"/>
       <c r="B154" s="56"/>
       <c r="C154" s="56"/>
@@ -5245,7 +5311,7 @@
       <c r="R154" s="57"/>
       <c r="W154" s="57"/>
     </row>
-    <row r="155" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:23">
       <c r="A155" s="56"/>
       <c r="B155" s="56"/>
       <c r="C155" s="56"/>
@@ -5266,7 +5332,7 @@
       <c r="R155" s="57"/>
       <c r="W155" s="57"/>
     </row>
-    <row r="156" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:23">
       <c r="A156" s="56"/>
       <c r="B156" s="56"/>
       <c r="C156" s="56"/>
@@ -5287,7 +5353,7 @@
       <c r="R156" s="57"/>
       <c r="W156" s="57"/>
     </row>
-    <row r="157" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:23">
       <c r="A157" s="56"/>
       <c r="B157" s="56"/>
       <c r="C157" s="56"/>
@@ -5308,7 +5374,7 @@
       <c r="R157" s="57"/>
       <c r="W157" s="57"/>
     </row>
-    <row r="158" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:23">
       <c r="A158" s="56"/>
       <c r="B158" s="56"/>
       <c r="C158" s="56"/>
@@ -5329,7 +5395,7 @@
       <c r="R158" s="57"/>
       <c r="W158" s="57"/>
     </row>
-    <row r="159" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:23">
       <c r="A159" s="56"/>
       <c r="B159" s="56"/>
       <c r="C159" s="56"/>
@@ -5350,7 +5416,7 @@
       <c r="R159" s="57"/>
       <c r="W159" s="57"/>
     </row>
-    <row r="160" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:23">
       <c r="A160" s="56"/>
       <c r="B160" s="56"/>
       <c r="C160" s="56"/>
@@ -5371,7 +5437,7 @@
       <c r="R160" s="57"/>
       <c r="W160" s="57"/>
     </row>
-    <row r="161" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:23">
       <c r="A161" s="56"/>
       <c r="B161" s="56"/>
       <c r="C161" s="56"/>
@@ -5392,7 +5458,7 @@
       <c r="R161" s="57"/>
       <c r="W161" s="57"/>
     </row>
-    <row r="162" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:23">
       <c r="A162" s="56"/>
       <c r="B162" s="56"/>
       <c r="C162" s="56"/>
@@ -5413,7 +5479,7 @@
       <c r="R162" s="57"/>
       <c r="W162" s="57"/>
     </row>
-    <row r="163" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:23">
       <c r="A163" s="56"/>
       <c r="B163" s="56"/>
       <c r="C163" s="56"/>
@@ -5434,7 +5500,7 @@
       <c r="R163" s="57"/>
       <c r="W163" s="57"/>
     </row>
-    <row r="164" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:23">
       <c r="A164" s="56"/>
       <c r="B164" s="56"/>
       <c r="C164" s="56"/>
@@ -5455,7 +5521,7 @@
       <c r="R164" s="57"/>
       <c r="W164" s="57"/>
     </row>
-    <row r="165" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:23">
       <c r="A165" s="56"/>
       <c r="B165" s="56"/>
       <c r="C165" s="56"/>
@@ -5476,7 +5542,7 @@
       <c r="R165" s="57"/>
       <c r="W165" s="57"/>
     </row>
-    <row r="166" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:23">
       <c r="A166" s="56"/>
       <c r="B166" s="56"/>
       <c r="C166" s="56"/>
@@ -5497,7 +5563,7 @@
       <c r="R166" s="57"/>
       <c r="W166" s="57"/>
     </row>
-    <row r="167" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:23">
       <c r="A167" s="56"/>
       <c r="B167" s="56"/>
       <c r="C167" s="56"/>
@@ -5518,7 +5584,7 @@
       <c r="R167" s="57"/>
       <c r="W167" s="57"/>
     </row>
-    <row r="168" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:23">
       <c r="A168" s="56"/>
       <c r="B168" s="56"/>
       <c r="C168" s="56"/>
@@ -5539,7 +5605,7 @@
       <c r="R168" s="57"/>
       <c r="W168" s="57"/>
     </row>
-    <row r="169" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:23">
       <c r="A169" s="56"/>
       <c r="B169" s="56"/>
       <c r="C169" s="56"/>
@@ -5560,7 +5626,7 @@
       <c r="R169" s="57"/>
       <c r="W169" s="57"/>
     </row>
-    <row r="170" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:23">
       <c r="A170" s="56"/>
       <c r="B170" s="56"/>
       <c r="C170" s="56"/>
@@ -5596,7 +5662,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P1:P1048576">
       <formula1>"通过,不通过"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L3 M1:M1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M1:M1048576">
       <formula1>"架构组,EQ组,捷豹组,马丁组,磐石组,极光组,移动组,野帝组"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B1048576">
@@ -5605,7 +5671,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576">
       <formula1>"紧急,不紧急"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G1048576 I1:I1048576 V1:V1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V1:V1048576 I1:I1048576 G1:G1048576">
       <formula1>"是,否"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5615,14 +5681,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="26.125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="26.125" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="2" width="8" customWidth="1"/>
     <col min="3" max="3" width="21.625" customWidth="1"/>
@@ -5642,7 +5708,7 @@
     <col min="18" max="18" width="4.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:18" ht="36" customHeight="1">
       <c r="A1" s="30" t="s">
         <v>23</v>
       </c>
@@ -5698,7 +5764,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:18" ht="30" customHeight="1">
       <c r="A2" s="32"/>
       <c r="B2" s="33"/>
       <c r="C2" s="33"/>
@@ -5718,7 +5784,7 @@
       <c r="Q2" s="43"/>
       <c r="R2" s="43"/>
     </row>
-    <row r="3" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:18" ht="30" customHeight="1">
       <c r="A3" s="32"/>
       <c r="B3" s="33"/>
       <c r="C3" s="33"/>
@@ -5738,7 +5804,7 @@
       <c r="Q3" s="43"/>
       <c r="R3" s="43"/>
     </row>
-    <row r="4" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:18" ht="30" customHeight="1">
       <c r="A4" s="32"/>
       <c r="B4" s="33"/>
       <c r="C4" s="33"/>
@@ -5765,14 +5831,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="12.25" customWidth="1"/>
     <col min="3" max="3" width="15.25" customWidth="1"/>
@@ -5784,22 +5850,22 @@
     <col min="9" max="9" width="10.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20.25" x14ac:dyDescent="0.15">
-      <c r="A1" s="78" t="s">
+    <row r="1" spans="1:11" ht="20.25">
+      <c r="A1" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-    </row>
-    <row r="2" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="81"/>
+    </row>
+    <row r="2" spans="1:11" ht="17.25">
       <c r="A2" s="18" t="s">
         <v>40</v>
       </c>
@@ -5834,9 +5900,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A3" s="80"/>
-      <c r="B3" s="80"/>
+    <row r="3" spans="1:11" ht="17.25">
+      <c r="A3" s="82"/>
+      <c r="B3" s="82"/>
       <c r="C3" s="20"/>
       <c r="D3" s="21"/>
       <c r="E3" s="21"/>
@@ -5847,9 +5913,9 @@
       <c r="J3" s="27"/>
       <c r="K3" s="28"/>
     </row>
-    <row r="4" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A4" s="81"/>
-      <c r="B4" s="82"/>
+    <row r="4" spans="1:11" ht="17.25">
+      <c r="A4" s="83"/>
+      <c r="B4" s="84"/>
       <c r="C4" s="20"/>
       <c r="D4" s="21"/>
       <c r="E4" s="21"/>
@@ -5860,9 +5926,9 @@
       <c r="J4" s="27"/>
       <c r="K4" s="28"/>
     </row>
-    <row r="5" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A5" s="80"/>
-      <c r="B5" s="80"/>
+    <row r="5" spans="1:11" ht="17.25">
+      <c r="A5" s="82"/>
+      <c r="B5" s="82"/>
       <c r="C5" s="20"/>
       <c r="D5" s="21"/>
       <c r="E5" s="21"/>
@@ -5873,9 +5939,9 @@
       <c r="J5" s="27"/>
       <c r="K5" s="28"/>
     </row>
-    <row r="6" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A6" s="82"/>
-      <c r="B6" s="82"/>
+    <row r="6" spans="1:11" ht="17.25">
+      <c r="A6" s="84"/>
+      <c r="B6" s="84"/>
       <c r="C6" s="20"/>
       <c r="D6" s="21"/>
       <c r="E6" s="21"/>
@@ -5886,9 +5952,9 @@
       <c r="J6" s="27"/>
       <c r="K6" s="28"/>
     </row>
-    <row r="7" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A7" s="82"/>
-      <c r="B7" s="82"/>
+    <row r="7" spans="1:11" ht="17.25">
+      <c r="A7" s="84"/>
+      <c r="B7" s="84"/>
       <c r="C7" s="20"/>
       <c r="D7" s="21"/>
       <c r="E7" s="21"/>
@@ -5899,9 +5965,9 @@
       <c r="J7" s="27"/>
       <c r="K7" s="28"/>
     </row>
-    <row r="8" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A8" s="82"/>
-      <c r="B8" s="82"/>
+    <row r="8" spans="1:11" ht="17.25">
+      <c r="A8" s="84"/>
+      <c r="B8" s="84"/>
       <c r="C8" s="20"/>
       <c r="D8" s="21"/>
       <c r="E8" s="21"/>
@@ -5912,9 +5978,9 @@
       <c r="J8" s="27"/>
       <c r="K8" s="28"/>
     </row>
-    <row r="9" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A9" s="82"/>
-      <c r="B9" s="82"/>
+    <row r="9" spans="1:11" ht="17.25">
+      <c r="A9" s="84"/>
+      <c r="B9" s="84"/>
       <c r="C9" s="20"/>
       <c r="D9" s="21"/>
       <c r="E9" s="21"/>
@@ -5925,9 +5991,9 @@
       <c r="J9" s="27"/>
       <c r="K9" s="28"/>
     </row>
-    <row r="10" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A10" s="81"/>
-      <c r="B10" s="81"/>
+    <row r="10" spans="1:11" ht="17.25">
+      <c r="A10" s="83"/>
+      <c r="B10" s="83"/>
       <c r="C10" s="20"/>
       <c r="D10" s="21"/>
       <c r="E10" s="21"/>
@@ -5938,7 +6004,7 @@
       <c r="J10" s="27"/>
       <c r="K10" s="28"/>
     </row>
-    <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:11" ht="16.5">
       <c r="A11" s="22"/>
       <c r="B11" s="22"/>
       <c r="C11" s="20"/>
@@ -5965,14 +6031,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="4.75" customWidth="1"/>
     <col min="2" max="3" width="6.375" customWidth="1"/>
@@ -5987,39 +6053,39 @@
     <col min="13" max="13" width="32.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="83" t="s">
+    <row r="1" spans="1:13">
+      <c r="A1" s="85" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="84"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="85"/>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="85"/>
-      <c r="L2" s="85"/>
-      <c r="M2" s="86"/>
-    </row>
-    <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="85"/>
+      <c r="L1" s="85"/>
+      <c r="M1" s="86"/>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="87"/>
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="87"/>
+      <c r="K2" s="87"/>
+      <c r="L2" s="87"/>
+      <c r="M2" s="88"/>
+    </row>
+    <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="8" t="s">
         <v>51</v>
       </c>
@@ -6060,7 +6126,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" ht="16.5">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
@@ -6075,7 +6141,7 @@
       <c r="L4" s="9"/>
       <c r="M4" s="12"/>
     </row>
-    <row r="5" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" ht="16.5">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
@@ -6090,7 +6156,7 @@
       <c r="L5" s="9"/>
       <c r="M5" s="12"/>
     </row>
-    <row r="6" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" ht="16.5">
       <c r="A6" s="9"/>
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
@@ -6105,7 +6171,7 @@
       <c r="L6" s="13"/>
       <c r="M6" s="9"/>
     </row>
-    <row r="7" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" ht="16.5">
       <c r="A7" s="9"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
@@ -6120,7 +6186,7 @@
       <c r="L7" s="10"/>
       <c r="M7" s="17"/>
     </row>
-    <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" ht="16.5">
       <c r="A8" s="9"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
@@ -6135,7 +6201,7 @@
       <c r="L8" s="9"/>
       <c r="M8" s="12"/>
     </row>
-    <row r="9" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" ht="16.5">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -6150,7 +6216,7 @@
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
     </row>
-    <row r="10" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" ht="16.5">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -6165,7 +6231,7 @@
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
     </row>
-    <row r="11" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" ht="16.5">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -6180,7 +6246,7 @@
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
     </row>
-    <row r="12" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13" ht="16.5">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -6195,7 +6261,7 @@
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
     </row>
-    <row r="13" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13" ht="16.5">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -6210,7 +6276,7 @@
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
     </row>
-    <row r="14" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:13" ht="16.5">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -6225,7 +6291,7 @@
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
     </row>
-    <row r="15" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:13" ht="16.5">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -6240,7 +6306,7 @@
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
     </row>
-    <row r="16" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:13" ht="16.5">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -6279,14 +6345,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="4.75" customWidth="1"/>
     <col min="2" max="3" width="6.375" customWidth="1"/>
@@ -6301,39 +6367,39 @@
     <col min="13" max="13" width="32.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="83" t="s">
+    <row r="1" spans="1:13">
+      <c r="A1" s="85" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="84"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="85"/>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="85"/>
-      <c r="L2" s="85"/>
-      <c r="M2" s="86"/>
-    </row>
-    <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="85"/>
+      <c r="L1" s="85"/>
+      <c r="M1" s="86"/>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="87"/>
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="87"/>
+      <c r="K2" s="87"/>
+      <c r="L2" s="87"/>
+      <c r="M2" s="88"/>
+    </row>
+    <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="8" t="s">
         <v>51</v>
       </c>
@@ -6374,7 +6440,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" ht="16.5">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
@@ -6389,7 +6455,7 @@
       <c r="L4" s="9"/>
       <c r="M4" s="12"/>
     </row>
-    <row r="5" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" ht="16.5">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
@@ -6404,7 +6470,7 @@
       <c r="L5" s="9"/>
       <c r="M5" s="12"/>
     </row>
-    <row r="6" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" ht="16.5">
       <c r="A6" s="9"/>
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
@@ -6419,7 +6485,7 @@
       <c r="L6" s="13"/>
       <c r="M6" s="9"/>
     </row>
-    <row r="7" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" ht="16.5">
       <c r="A7" s="9"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
@@ -6434,7 +6500,7 @@
       <c r="L7" s="10"/>
       <c r="M7" s="17"/>
     </row>
-    <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" ht="16.5">
       <c r="A8" s="9"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
@@ -6449,7 +6515,7 @@
       <c r="L8" s="9"/>
       <c r="M8" s="12"/>
     </row>
-    <row r="9" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" ht="16.5">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -6464,7 +6530,7 @@
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
     </row>
-    <row r="10" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" ht="16.5">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -6479,7 +6545,7 @@
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
     </row>
-    <row r="11" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" ht="16.5">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -6494,7 +6560,7 @@
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
     </row>
-    <row r="12" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13" ht="16.5">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -6509,7 +6575,7 @@
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
     </row>
-    <row r="13" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13" ht="16.5">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -6524,7 +6590,7 @@
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
     </row>
-    <row r="14" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:13" ht="16.5">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -6539,7 +6605,7 @@
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
     </row>
-    <row r="15" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:13" ht="16.5">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -6554,7 +6620,7 @@
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
     </row>
-    <row r="16" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:13" ht="16.5">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -6593,14 +6659,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="4.75" customWidth="1"/>
     <col min="2" max="3" width="6.375" customWidth="1"/>
@@ -6615,39 +6681,39 @@
     <col min="13" max="13" width="32.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="83" t="s">
+    <row r="1" spans="1:13">
+      <c r="A1" s="85" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="84"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="85"/>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="85"/>
-      <c r="L2" s="85"/>
-      <c r="M2" s="86"/>
-    </row>
-    <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="85"/>
+      <c r="L1" s="85"/>
+      <c r="M1" s="86"/>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="87"/>
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="87"/>
+      <c r="K2" s="87"/>
+      <c r="L2" s="87"/>
+      <c r="M2" s="88"/>
+    </row>
+    <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="8" t="s">
         <v>51</v>
       </c>
@@ -6688,7 +6754,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" ht="16.5">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
@@ -6703,7 +6769,7 @@
       <c r="L4" s="9"/>
       <c r="M4" s="12"/>
     </row>
-    <row r="5" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" ht="16.5">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
@@ -6718,7 +6784,7 @@
       <c r="L5" s="9"/>
       <c r="M5" s="12"/>
     </row>
-    <row r="6" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" ht="16.5">
       <c r="A6" s="9"/>
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
@@ -6733,7 +6799,7 @@
       <c r="L6" s="13"/>
       <c r="M6" s="9"/>
     </row>
-    <row r="7" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" ht="16.5">
       <c r="A7" s="9"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
@@ -6748,7 +6814,7 @@
       <c r="L7" s="10"/>
       <c r="M7" s="17"/>
     </row>
-    <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" ht="16.5">
       <c r="A8" s="9"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
@@ -6763,7 +6829,7 @@
       <c r="L8" s="9"/>
       <c r="M8" s="12"/>
     </row>
-    <row r="9" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" ht="16.5">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -6778,7 +6844,7 @@
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
     </row>
-    <row r="10" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" ht="16.5">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -6793,7 +6859,7 @@
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
     </row>
-    <row r="11" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" ht="16.5">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -6808,7 +6874,7 @@
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
     </row>
-    <row r="12" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13" ht="16.5">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -6823,7 +6889,7 @@
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
     </row>
-    <row r="13" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13" ht="16.5">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -6838,7 +6904,7 @@
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
     </row>
-    <row r="14" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:13" ht="16.5">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -6853,7 +6919,7 @@
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
     </row>
-    <row r="15" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:13" ht="16.5">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -6868,7 +6934,7 @@
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
     </row>
-    <row r="16" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:13" ht="16.5">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -6907,14 +6973,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="4.75" customWidth="1"/>
     <col min="2" max="2" width="10.125" customWidth="1"/>
@@ -6931,39 +6997,39 @@
     <col min="13" max="13" width="32.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="83" t="s">
+    <row r="1" spans="1:13">
+      <c r="A1" s="85" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="84"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="85"/>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="85"/>
-      <c r="L2" s="85"/>
-      <c r="M2" s="86"/>
-    </row>
-    <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="85"/>
+      <c r="L1" s="85"/>
+      <c r="M1" s="86"/>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="87"/>
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="87"/>
+      <c r="K2" s="87"/>
+      <c r="L2" s="87"/>
+      <c r="M2" s="88"/>
+    </row>
+    <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="8" t="s">
         <v>51</v>
       </c>
@@ -7004,7 +7070,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" ht="16.5">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
@@ -7019,7 +7085,7 @@
       <c r="L4" s="9"/>
       <c r="M4" s="12"/>
     </row>
-    <row r="5" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" ht="16.5">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
@@ -7034,7 +7100,7 @@
       <c r="L5" s="9"/>
       <c r="M5" s="12"/>
     </row>
-    <row r="6" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" ht="16.5">
       <c r="A6" s="9"/>
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
@@ -7049,7 +7115,7 @@
       <c r="L6" s="13"/>
       <c r="M6" s="9"/>
     </row>
-    <row r="7" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" ht="16.5">
       <c r="A7" s="9"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
@@ -7064,7 +7130,7 @@
       <c r="L7" s="10"/>
       <c r="M7" s="17"/>
     </row>
-    <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" ht="16.5">
       <c r="A8" s="9"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
@@ -7079,7 +7145,7 @@
       <c r="L8" s="9"/>
       <c r="M8" s="12"/>
     </row>
-    <row r="9" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" ht="16.5">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -7094,7 +7160,7 @@
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
     </row>
-    <row r="10" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" ht="16.5">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -7109,7 +7175,7 @@
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
     </row>
-    <row r="11" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" ht="16.5">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -7124,7 +7190,7 @@
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
     </row>
-    <row r="12" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13" ht="16.5">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -7139,7 +7205,7 @@
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
     </row>
-    <row r="13" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13" ht="16.5">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -7154,7 +7220,7 @@
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
     </row>
-    <row r="14" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:13" ht="16.5">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -7169,7 +7235,7 @@
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
     </row>
-    <row r="15" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:13" ht="16.5">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -7184,7 +7250,7 @@
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
     </row>
-    <row r="16" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:13" ht="16.5">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -7223,14 +7289,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
     <col min="2" max="2" width="43.125" customWidth="1"/>
@@ -7241,7 +7307,7 @@
     <col min="8" max="8" width="15.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8">
       <c r="A1" s="2" t="s">
         <v>60</v>
       </c>
@@ -7267,7 +7333,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" s="1" customFormat="1">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -7277,7 +7343,7 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -7287,7 +7353,7 @@
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -7297,7 +7363,7 @@
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -7307,7 +7373,7 @@
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -7317,7 +7383,7 @@
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -7327,7 +7393,7 @@
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -7337,7 +7403,7 @@
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -7347,7 +7413,7 @@
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -7357,7 +7423,7 @@
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -7367,7 +7433,7 @@
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -7377,7 +7443,7 @@
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -7387,7 +7453,7 @@
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -7397,7 +7463,7 @@
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -7407,7 +7473,7 @@
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -7417,7 +7483,7 @@
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -7427,7 +7493,7 @@
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -7437,7 +7503,7 @@
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
